--- a/mathTransformed/HMPSTT_(2021-01-21)_71_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-01-21)_71_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -481,7 +486,8 @@
           <t>AMEENA NASREEN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>GHS Kunigal Tumku</t>
         </is>
@@ -508,7 +514,8 @@
           <t>AMRUTHA T S</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>GHS Kakkabevina Halli Ballari East Ballar</t>
         </is>
@@ -537,6 +544,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>GHS D AnthapuraSandur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -564,6 +576,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>GHS Yalachigere Koratagere</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Madhugir</t>
         </is>
       </c>
@@ -589,7 +606,8 @@
           <t>ASHWINI N G</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Bellar</t>
         </is>
@@ -616,7 +634,8 @@
           <t>BAHUBALI D C</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Govt High School Boodi Betta Pavagada Madhugir</t>
         </is>
@@ -643,7 +662,8 @@
           <t>BASAVAJYOTHI K</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Bellar</t>
         </is>
@@ -670,7 +690,8 @@
           <t>BASAVARAJU C V</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Sri Mahalingeshwara H S Tumku</t>
         </is>
@@ -697,7 +718,8 @@
           <t>BEENA M S</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>GHS Honnudike Hand Post Tumku</t>
         </is>
@@ -724,7 +746,8 @@
           <t>DEVINDRAPPA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>GHS Sriramarangapura Hospet Ballar</t>
         </is>
@@ -753,6 +776,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>GHS Sodenahally</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Madhugiri</t>
         </is>
       </c>
@@ -780,6 +808,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>S R K R H S Gosikere</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Challakere Chitradurga</t>
         </is>
       </c>
@@ -805,7 +838,8 @@
           <t>G H PADMANABHA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>GHS (RMSA) HK Halli Sandur Ballar</t>
         </is>
@@ -832,7 +866,8 @@
           <t>G M GEETHA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>GHS Barasidlahalli Chikkanayakanahalli Tumku</t>
         </is>
@@ -859,7 +894,8 @@
           <t>G M JAYACHANDRA REDDY</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Umapragathi Hs Hiredoddavadi Tumku</t>
         </is>
@@ -886,7 +922,8 @@
           <t>G SOMANNA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>GHS Byatha Tumku</t>
         </is>
@@ -915,6 +952,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Govt. High School Hebburu</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Tumkur</t>
         </is>
       </c>
@@ -940,7 +982,8 @@
           <t>GOPI K</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Sri Nanjundeshwara HS Kithaganahalli Tumku</t>
         </is>
@@ -967,7 +1010,8 @@
           <t>H G MAHESH</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>Sri Vinayaka HS Hagalavadi,Gubbi,Tumku</t>
         </is>
@@ -994,7 +1038,8 @@
           <t>H S MALLIKARJUNAIAH</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>S R K B H S Muniyur Turuvekere Tumku</t>
         </is>
@@ -1021,7 +1066,8 @@
           <t>H S PRASANNA KUMAR</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Sri Uma Pragathi HS Mydala Tumku</t>
         </is>
@@ -1048,7 +1094,8 @@
           <t>H S SHIVASHANKAR</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Vidyaranya HS Chelur Gubbi Tumku</t>
         </is>
@@ -1075,7 +1122,8 @@
           <t>HARSHAVARDHANA K S</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>GHS,K M Halli Kudligi Ballar</t>
         </is>
@@ -1104,6 +1152,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>K P S Moka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Ballari</t>
         </is>
       </c>
@@ -1129,7 +1182,8 @@
           <t>JAGADEESH M L</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>S S RHS Surigenahalli Gubbi,Tumku</t>
         </is>
@@ -1156,7 +1210,8 @@
           <t>JALAJAKSHI G A</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Govt High School Madhugir</t>
         </is>
@@ -1183,7 +1238,8 @@
           <t>JAMUNA R</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Govt High School Thimmasandra Koratagere Madhugir</t>
         </is>
@@ -1210,7 +1266,8 @@
           <t>K M  DAKSHINA MURTHY</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>KNSC HS Ittigi Hoovina Hadagali,Ballar</t>
         </is>
@@ -1237,7 +1294,8 @@
           <t>KAVITHA D L</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Govt Junior College B.D.Pura Koratagere Madhugir</t>
         </is>
@@ -1264,7 +1322,8 @@
           <t>KUMARA S J</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Govt High School Honnagondanahalli Sira Madhugir</t>
         </is>
@@ -1291,7 +1350,8 @@
           <t>KUMARASWAMY H B</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Sri Chowdeshwari High School Tiptur Tumku</t>
         </is>
@@ -1318,7 +1378,8 @@
           <t>LOKESH R</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>GHS Dammur Ballari East,Ballar</t>
         </is>
@@ -1345,7 +1406,8 @@
           <t>M HAYAVADANA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Valmiki  High School B H Road Tumku</t>
         </is>
@@ -1372,7 +1434,8 @@
           <t>M M PRABHUSWAMY</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Rural HS PK Halli Hospet Ballar</t>
         </is>
@@ -1401,6 +1464,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Basaveshwara H S Hullekere</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Turuvekere Tumku</t>
         </is>
       </c>
@@ -1428,6 +1496,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>S U P H S Hiregundagal Gate</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Tumku</t>
         </is>
       </c>
@@ -1450,7 +1523,8 @@
           <t>MYLARALINGA PRABHU B C</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>M N HS,Chitradurg</t>
         </is>
@@ -1479,6 +1553,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>S S V E H S Challakere</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Chitradurg</t>
         </is>
       </c>
@@ -1504,7 +1583,8 @@
           <t>NAGARAJA S</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>Banajara Vidyavardhaka HS Maralur Tumku</t>
         </is>
@@ -1531,7 +1611,8 @@
           <t>NAGARATHNA B</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>GHS (RMSA) Chaganuru Ballari East Ballar</t>
         </is>
@@ -1558,7 +1639,8 @@
           <t>NAGAVENI V S</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>GHS Siriwara Ballari East Ballar</t>
         </is>
@@ -1585,7 +1667,8 @@
           <t>NAHEEDA BEGUM M A</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Govt High School Sakshihalli Sira Madhugir</t>
         </is>
@@ -1612,7 +1695,8 @@
           <t>NANJUNDASWAMY B S</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Sri Jnnanaganga RHS Koppa Gubbi Tumku</t>
         </is>
@@ -1639,7 +1723,8 @@
           <t>NARASIMHA RAJU C</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Govt High School Hanumanahalli Madhugir</t>
         </is>
@@ -1666,7 +1751,8 @@
           <t>NAVEEN KUMAR S C</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>Government High School Bandravi Molakalmur,Chitradurg</t>
         </is>
@@ -1695,6 +1781,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>GHS Budibetta Pavagada</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Madhugir</t>
         </is>
       </c>
@@ -1720,7 +1811,8 @@
           <t>P K MANJULADEVI</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Kavery HS A S K Palya Tumku</t>
         </is>
@@ -1747,7 +1839,8 @@
           <t>PADMAJA KALAPUR</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>M B S L High School Ballari</t>
         </is>
@@ -1774,7 +1867,8 @@
           <t>PAMPAPATHI U</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Kudligi Ballar</t>
         </is>
@@ -1803,6 +1897,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Kudligi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Ballar</t>
         </is>
       </c>
@@ -1828,7 +1927,8 @@
           <t>R H THIMMANNA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Sri Siddartha Gowthama RHS Gidaganahalli Sira Madhugir</t>
         </is>
@@ -1855,7 +1955,8 @@
           <t>RAFIYA BEGUM</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>GUHS Siruguppa ,Ballar</t>
         </is>
@@ -1882,7 +1983,8 @@
           <t>RAMESH K B</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>SMS HS Chelur Gubbi Tumkur-57211</t>
         </is>
@@ -1909,7 +2011,8 @@
           <t>RASHMI H S</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Govt. High School Hithalahalli Mutt Kunigal Tumku</t>
         </is>
@@ -1936,7 +2039,8 @@
           <t>RAVICHANDRA S</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>GHS  Kalamarahally Challakere Chitradurg</t>
         </is>
@@ -1963,7 +2067,8 @@
           <t>RAVIKUMAR T R</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>GHS  C.S Halli Hiriyur Chitradurg</t>
         </is>
@@ -1992,6 +2097,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>GHS LingapuraKoratagere</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Madhugir</t>
         </is>
       </c>
@@ -2017,7 +2127,8 @@
           <t>SHAMBHULINGA T</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya A D Gudda Kudligi Ballar</t>
         </is>
@@ -2044,7 +2155,8 @@
           <t>SHASHIDHARA S N</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>N R H S S.R Palya Pavagada ,Madhugir</t>
         </is>
@@ -2071,7 +2183,8 @@
           <t>SOWMYA H M</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Govt High School B.K Halli Pavagada Madhugir</t>
         </is>
@@ -2097,7 +2210,8 @@
           <t>SREELATHA G</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t xml:space="preserve">SREELATHA </t>
         </is>
@@ -2114,7 +2228,8 @@
           <t>GHS Gubehalli  Nandihalli Chikkanayakanahalli Tumkur</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>GHS Gubehalli  Nandihalli Chikkanayakanahalli Tumku</t>
         </is>
@@ -2141,7 +2256,8 @@
           <t>SRINIVASA MURTHY K S</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>Shree Ballekatte Santana Shree Mata HS Kallushettihalli Tiptur Tumku</t>
         </is>
@@ -2168,7 +2284,8 @@
           <t>SUPRIYA N</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>M B S L High School Ballari</t>
         </is>
@@ -2195,7 +2312,8 @@
           <t>SURESH M S</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Sri Ammaji RHS Harogere Sira Madhugir</t>
         </is>
@@ -2222,7 +2340,8 @@
           <t>T M SHANTHA RAJU</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>Sri Someshwara Hs Somalapura Gubbi Tumku</t>
         </is>
@@ -2249,7 +2368,8 @@
           <t>T S PRABHUSWAMY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>S M C P U C  Kuppalu,Tiptur,Tumku</t>
         </is>
@@ -2276,7 +2396,8 @@
           <t>V SHIVANNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>Central PU College(High School) Urdigere,Tumku</t>
         </is>
@@ -2303,7 +2424,8 @@
           <t>VIJAYAKUMARI S V</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>S S R H S Markonahalli Kunigal Tumkur</t>
         </is>
@@ -2330,7 +2452,8 @@
           <t>VISHWANATH M J</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>Sri Basaveshwara HS Thippur Gubbi Tumku</t>
         </is>
@@ -2357,7 +2480,8 @@
           <t>HARISH B R</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>Sri Gowthama HS Yediyur Kunigal Tumku</t>
         </is>
@@ -2384,7 +2508,8 @@
           <t>H J LINGARAJU</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>Dr. B R Ambedkar Hs Chowdanakuppe Kunigal Tumku</t>
         </is>

--- a/mathTransformed/HMPSTT_(2021-01-21)_71_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-01-21)_71_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,6 @@
           <t>AMEENA NASREEN</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>GHS Kunigal Tumku</t>
@@ -514,7 +513,6 @@
           <t>AMRUTHA T S</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>GHS Kakkabevina Halli Ballari East Ballar</t>
@@ -606,7 +604,6 @@
           <t>ASHWINI N G</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Bellar</t>
@@ -634,7 +631,6 @@
           <t>BAHUBALI D C</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>Govt High School Boodi Betta Pavagada Madhugir</t>
@@ -662,7 +658,6 @@
           <t>BASAVAJYOTHI K</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Bellar</t>
@@ -690,7 +685,6 @@
           <t>BASAVARAJU C V</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Sri Mahalingeshwara H S Tumku</t>
@@ -718,7 +712,6 @@
           <t>BEENA M S</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>GHS Honnudike Hand Post Tumku</t>
@@ -746,7 +739,6 @@
           <t>DEVINDRAPPA</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>GHS Sriramarangapura Hospet Ballar</t>
@@ -781,7 +773,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Madhugiri</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -838,7 +830,6 @@
           <t>G H PADMANABHA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>GHS (RMSA) HK Halli Sandur Ballar</t>
@@ -866,7 +857,6 @@
           <t>G M GEETHA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>GHS Barasidlahalli Chikkanayakanahalli Tumku</t>
@@ -894,7 +884,6 @@
           <t>G M JAYACHANDRA REDDY</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>Umapragathi Hs Hiredoddavadi Tumku</t>
@@ -922,7 +911,6 @@
           <t>G SOMANNA</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>GHS Byatha Tumku</t>
@@ -957,7 +945,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tumkur</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -982,7 +970,6 @@
           <t>GOPI K</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>Sri Nanjundeshwara HS Kithaganahalli Tumku</t>
@@ -1010,7 +997,6 @@
           <t>H G MAHESH</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>Sri Vinayaka HS Hagalavadi,Gubbi,Tumku</t>
@@ -1038,7 +1024,6 @@
           <t>H S MALLIKARJUNAIAH</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>S R K B H S Muniyur Turuvekere Tumku</t>
@@ -1066,7 +1051,6 @@
           <t>H S PRASANNA KUMAR</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>Sri Uma Pragathi HS Mydala Tumku</t>
@@ -1094,7 +1078,6 @@
           <t>H S SHIVASHANKAR</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>Vidyaranya HS Chelur Gubbi Tumku</t>
@@ -1122,7 +1105,6 @@
           <t>HARSHAVARDHANA K S</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>GHS,K M Halli Kudligi Ballar</t>
@@ -1182,7 +1164,6 @@
           <t>JAGADEESH M L</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>S S RHS Surigenahalli Gubbi,Tumku</t>
@@ -1210,7 +1191,6 @@
           <t>JALAJAKSHI G A</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>Govt High School Madhugir</t>
@@ -1238,7 +1218,6 @@
           <t>JAMUNA R</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>Govt High School Thimmasandra Koratagere Madhugir</t>
@@ -1266,7 +1245,6 @@
           <t>K M  DAKSHINA MURTHY</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>KNSC HS Ittigi Hoovina Hadagali,Ballar</t>
@@ -1294,7 +1272,6 @@
           <t>KAVITHA D L</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>Govt Junior College B.D.Pura Koratagere Madhugir</t>
@@ -1322,7 +1299,6 @@
           <t>KUMARA S J</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>Govt High School Honnagondanahalli Sira Madhugir</t>
@@ -1350,7 +1326,6 @@
           <t>KUMARASWAMY H B</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>Sri Chowdeshwari High School Tiptur Tumku</t>
@@ -1378,7 +1353,6 @@
           <t>LOKESH R</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>GHS Dammur Ballari East,Ballar</t>
@@ -1406,7 +1380,6 @@
           <t>M HAYAVADANA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>Valmiki  High School B H Road Tumku</t>
@@ -1434,7 +1407,6 @@
           <t>M M PRABHUSWAMY</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>Rural HS PK Halli Hospet Ballar</t>
@@ -1523,7 +1495,6 @@
           <t>MYLARALINGA PRABHU B C</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>M N HS,Chitradurg</t>
@@ -1583,7 +1554,6 @@
           <t>NAGARAJA S</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>Banajara Vidyavardhaka HS Maralur Tumku</t>
@@ -1611,7 +1581,6 @@
           <t>NAGARATHNA B</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>GHS (RMSA) Chaganuru Ballari East Ballar</t>
@@ -1639,7 +1608,6 @@
           <t>NAGAVENI V S</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>GHS Siriwara Ballari East Ballar</t>
@@ -1667,7 +1635,6 @@
           <t>NAHEEDA BEGUM M A</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>Govt High School Sakshihalli Sira Madhugir</t>
@@ -1695,7 +1662,6 @@
           <t>NANJUNDASWAMY B S</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>Sri Jnnanaganga RHS Koppa Gubbi Tumku</t>
@@ -1723,7 +1689,6 @@
           <t>NARASIMHA RAJU C</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>Govt High School Hanumanahalli Madhugir</t>
@@ -1751,7 +1716,6 @@
           <t>NAVEEN KUMAR S C</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>Government High School Bandravi Molakalmur,Chitradurg</t>
@@ -1811,7 +1775,6 @@
           <t>P K MANJULADEVI</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>Kavery HS A S K Palya Tumku</t>
@@ -1839,7 +1802,6 @@
           <t>PADMAJA KALAPUR</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>M B S L High School Ballari</t>
@@ -1867,7 +1829,6 @@
           <t>PAMPAPATHI U</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya Kudligi Ballar</t>
@@ -1927,7 +1888,6 @@
           <t>R H THIMMANNA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>Sri Siddartha Gowthama RHS Gidaganahalli Sira Madhugir</t>
@@ -1955,7 +1915,6 @@
           <t>RAFIYA BEGUM</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>GUHS Siruguppa ,Ballar</t>
@@ -1983,7 +1942,6 @@
           <t>RAMESH K B</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>SMS HS Chelur Gubbi Tumkur-57211</t>
@@ -2011,7 +1969,6 @@
           <t>RASHMI H S</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>Govt. High School Hithalahalli Mutt Kunigal Tumku</t>
@@ -2039,7 +1996,6 @@
           <t>RAVICHANDRA S</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>GHS  Kalamarahally Challakere Chitradurg</t>
@@ -2067,7 +2023,6 @@
           <t>RAVIKUMAR T R</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>GHS  C.S Halli Hiriyur Chitradurg</t>
@@ -2127,7 +2082,6 @@
           <t>SHAMBHULINGA T</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>Govt. Adarsha Vidyalaya A D Gudda Kudligi Ballar</t>
@@ -2155,7 +2109,6 @@
           <t>SHASHIDHARA S N</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>N R H S S.R Palya Pavagada ,Madhugir</t>
@@ -2183,7 +2136,6 @@
           <t>SOWMYA H M</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>Govt High School B.K Halli Pavagada Madhugir</t>
@@ -2210,7 +2162,6 @@
           <t>SREELATHA G</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t xml:space="preserve">SREELATHA </t>
@@ -2228,7 +2179,6 @@
           <t>GHS Gubehalli  Nandihalli Chikkanayakanahalli Tumkur</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>GHS Gubehalli  Nandihalli Chikkanayakanahalli Tumku</t>
@@ -2256,7 +2206,6 @@
           <t>SRINIVASA MURTHY K S</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>Shree Ballekatte Santana Shree Mata HS Kallushettihalli Tiptur Tumku</t>
@@ -2284,7 +2233,6 @@
           <t>SUPRIYA N</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>M B S L High School Ballari</t>
@@ -2312,7 +2260,6 @@
           <t>SURESH M S</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>Sri Ammaji RHS Harogere Sira Madhugir</t>
@@ -2340,7 +2287,6 @@
           <t>T M SHANTHA RAJU</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>Sri Someshwara Hs Somalapura Gubbi Tumku</t>
@@ -2368,7 +2314,6 @@
           <t>T S PRABHUSWAMY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>S M C P U C  Kuppalu,Tiptur,Tumku</t>
@@ -2396,7 +2341,6 @@
           <t>V SHIVANNA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>Central PU College(High School) Urdigere,Tumku</t>
@@ -2424,7 +2368,6 @@
           <t>VIJAYAKUMARI S V</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>S S R H S Markonahalli Kunigal Tumkur</t>
@@ -2452,7 +2395,6 @@
           <t>VISHWANATH M J</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>Sri Basaveshwara HS Thippur Gubbi Tumku</t>
@@ -2480,7 +2422,6 @@
           <t>HARISH B R</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>Sri Gowthama HS Yediyur Kunigal Tumku</t>
@@ -2508,7 +2449,6 @@
           <t>H J LINGARAJU</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>Dr. B R Ambedkar Hs Chowdanakuppe Kunigal Tumku</t>

--- a/mathTransformed/HMPSTT_(2021-01-21)_71_4.xlsx
+++ b/mathTransformed/HMPSTT_(2021-01-21)_71_4.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GHS Kunigal Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GHS Kakkabevina Halli Ballari East Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Govt. Adarsha Vidyalaya Bellar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Govt High School Boodi Betta Pavagada Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Govt. Adarsha Vidyalaya Bellar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sri Mahalingeshwara H S Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>GHS Honnudike Hand Post Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GHS Sriramarangapura Hospet Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Challakere Chitradurga</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>GHS (RMSA) HK Halli Sandur Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>GHS Barasidlahalli Chikkanayakanahalli Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Umapragathi Hs Hiredoddavadi Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>GHS Byatha Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sri Nanjundeshwara HS Kithaganahalli Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sri Vinayaka HS Hagalavadi,Gubbi,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S R K B H S Muniyur Turuvekere Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sri Uma Pragathi HS Mydala Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Vidyaranya HS Chelur Gubbi Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GHS,K M Halli Kudligi Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S S RHS Surigenahalli Gubbi,Tumku</t>
+          <t>Udupi</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Govt High School Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Govt High School Thimmasandra Koratagere Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>KNSC HS Ittigi Hoovina Hadagali,Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Govt Junior College B.D.Pura Koratagere Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Govt High School Honnagondanahalli Sira Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sri Chowdeshwari High School Tiptur Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>GHS Dammur Ballari East,Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Valmiki  High School B H Road Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rural HS PK Halli Hospet Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Turuvekere Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>M N HS,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Banajara Vidyavardhaka HS Maralur Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>GHS (RMSA) Chaganuru Ballari East Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>GHS Siriwara Ballari East Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Govt High School Sakshihalli Sira Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sri Jnnanaganga RHS Koppa Gubbi Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Govt High School Hanumanahalli Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Government High School Bandravi Molakalmur,Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Kavery HS A S K Palya Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>M B S L High School Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Govt. Adarsha Vidyalaya Kudligi Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Sri Siddartha Gowthama RHS Gidaganahalli Sira Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>GUHS Siruguppa ,Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>SMS HS Chelur Gubbi Tumkur-57211</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Govt. High School Hithalahalli Mutt Kunigal Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>GHS  Kalamarahally Challakere Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>GHS  C.S Halli Hiriyur Chitradurg</t>
+          <t>Chitradurga</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Govt. Adarsha Vidyalaya A D Gudda Kudligi Ballar</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>N R H S S.R Palya Pavagada ,Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Govt High School B.K Halli Pavagada Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>GHS Gubehalli  Nandihalli Chikkanayakanahalli Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Shree Ballekatte Santana Shree Mata HS Kallushettihalli Tiptur Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>M B S L High School Ballari</t>
+          <t>Ballari (Bellary)</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Sri Ammaji RHS Harogere Sira Madhugir</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Sri Someshwara Hs Somalapura Gubbi Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S M C P U C  Kuppalu,Tiptur,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Central PU College(High School) Urdigere,Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>S S R H S Markonahalli Kunigal Tumkur</t>
+          <t>Udupi</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Sri Basaveshwara HS Thippur Gubbi Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Sri Gowthama HS Yediyur Kunigal Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Dr. B R Ambedkar Hs Chowdanakuppe Kunigal Tumku</t>
+          <t>Tumakuru (Tumkur)</t>
         </is>
       </c>
     </row>
